--- a/GL100_TestData_PostJournals_21B.xlsx
+++ b/GL100_TestData_PostJournals_21B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF-Selenium_Python-master\UIAF-Selenium_Python-master\venv\Selenium\21B_Results_and_Scripts\GL Scripts Batch2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF_Selenium_IGA-master\venv\Selenium\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21651C9C-DA67-4F32-8A8F-9434AACCA04B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EA66EE-FA36-4CB4-8787-CEDAB63B6DC2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input_Value" sheetId="3" r:id="rId1"/>
@@ -24,52 +24,15 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Raj Divekar</author>
-  </authors>
-  <commentList>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{5328F79E-FCA3-49B4-A3D6-6E333F865464}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Raj Divekar:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Should exist and should not be posted. Can copy it from EditUnposted Journal Testdata
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>UserName</t>
   </si>
@@ -134,17 +97,20 @@
     <t>GNB Consol</t>
   </si>
   <si>
-    <t>test 3 realloc-20210319-SLL-03</t>
-  </si>
-  <si>
-    <t>2021-01</t>
+    <t>Should exist and should not be posted.</t>
+  </si>
+  <si>
+    <t>2021-04</t>
+  </si>
+  <si>
+    <t>AutomationTesting45</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,19 +126,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -183,7 +136,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -215,12 +168,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -228,98 +184,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -628,76 +493,76 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.26953125" customWidth="1"/>
-    <col min="14" max="14" width="16.81640625" customWidth="1"/>
+    <col min="1" max="1" width="26.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" customWidth="1"/>
+    <col min="7" max="7" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.1796875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="33.81640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="17" max="17" width="30.81640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="18" max="18" width="10.90625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1" t="s">
@@ -711,57 +576,61 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+      <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
+      <c r="H2" s="2">
         <v>5</v>
       </c>
-      <c r="C2" s="2">
+      <c r="I2" s="2">
         <v>10</v>
       </c>
-      <c r="D2" s="2">
+      <c r="J2" s="2">
         <v>30</v>
       </c>
-      <c r="E2" s="2">
+      <c r="K2" s="2">
         <v>15</v>
       </c>
-      <c r="F2" s="2">
+      <c r="L2" s="2">
         <v>30</v>
       </c>
-      <c r="G2" s="2">
+      <c r="M2" s="2">
         <v>60</v>
       </c>
-      <c r="H2" s="2">
+      <c r="N2" s="2">
         <v>120</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
+    <row r="5" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
